--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6765CD5F-7656-4646-8396-E31D72D0D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512F1CA5-7C50-465E-9BB7-D5DED76C3BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="1020" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7068" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Nước Ép</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>STSE</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,7 +380,7 @@
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +423,11 @@
       <c r="N1">
         <v>10</v>
       </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,8 +470,11 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -505,8 +517,11 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,6 +563,9 @@
       </c>
       <c r="N4">
         <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512F1CA5-7C50-465E-9BB7-D5DED76C3BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C22204-9A31-4695-9595-71DEF6E3CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7068" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>STSE</t>
+  </si>
+  <si>
+    <t>Ép 1</t>
+  </si>
+  <si>
+    <t>Ép 2</t>
+  </si>
+  <si>
+    <t>Ép 3</t>
+  </si>
+  <si>
+    <t>Ép 4</t>
+  </si>
+  <si>
+    <t>Ép 5</t>
+  </si>
+  <si>
+    <t>Ép 6</t>
   </si>
 </sst>
 </file>
@@ -369,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,6 +586,288 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C22204-9A31-4695-9595-71DEF6E3CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215D986-B854-4F84-872C-211A7117D7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -39,46 +39,128 @@
     <t>type</t>
   </si>
   <si>
-    <t>Caffee Sữa</t>
-  </si>
-  <si>
-    <t>Caffee Đá</t>
-  </si>
-  <si>
-    <t>Nước Ép</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
     <t>STSE</t>
   </si>
   <si>
-    <t>Ép 1</t>
-  </si>
-  <si>
-    <t>Ép 2</t>
-  </si>
-  <si>
-    <t>Ép 3</t>
-  </si>
-  <si>
-    <t>Ép 4</t>
-  </si>
-  <si>
-    <t>Ép 5</t>
-  </si>
-  <si>
-    <t>Ép 6</t>
+    <t>Cà phê Laman mạnh mẽ thơm nồng</t>
+  </si>
+  <si>
+    <t>Cà phê Laman đậm và sánh</t>
+  </si>
+  <si>
+    <t>Cà phê Laman thơm nhẹ nhàng</t>
+  </si>
+  <si>
+    <t>Nước cà phê Laman rang xay</t>
+  </si>
+  <si>
+    <t>Nước ép cà rốt</t>
+  </si>
+  <si>
+    <t>Nước ép dưa hấu</t>
+  </si>
+  <si>
+    <t>Nước ép cam</t>
+  </si>
+  <si>
+    <t>Nước ép hỗn hợp: Cam - Cà rốt</t>
+  </si>
+  <si>
+    <t>Trà hoa cúc mật ong</t>
+  </si>
+  <si>
+    <t>Trà chanh cam xả tắc</t>
+  </si>
+  <si>
+    <t>Nước 5 loại đậu</t>
+  </si>
+  <si>
+    <t>Nước mật ong và hạt chia</t>
+  </si>
+  <si>
+    <t>Trà xanh</t>
+  </si>
+  <si>
+    <t>Cocacola light</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Sting đỏ / vàng</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Nước suối</t>
+  </si>
+  <si>
+    <t>Popporo</t>
+  </si>
+  <si>
+    <t>Sữa gạo lức</t>
+  </si>
+  <si>
+    <t>Bia chai Saigon special</t>
+  </si>
+  <si>
+    <t>Bia lon Saigon special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFFE 1 </t>
+  </si>
+  <si>
+    <t>CAFFE 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFFE 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFFE 2 </t>
+  </si>
+  <si>
+    <t>SỮA</t>
+  </si>
+  <si>
+    <t>NƯỚC EP1</t>
+  </si>
+  <si>
+    <t>NƯỚC EP 2</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
+    <t>NL 2</t>
+  </si>
+  <si>
+    <t>NL 3</t>
+  </si>
+  <si>
+    <t>NL 4</t>
+  </si>
+  <si>
+    <t>NL 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,18 +470,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,46 +500,58 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>4</v>
-      </c>
-      <c r="I1">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="J1">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1">
-        <v>7</v>
-      </c>
-      <c r="L1">
-        <v>8</v>
-      </c>
-      <c r="M1">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -488,19 +589,31 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>15000</v>
@@ -535,19 +648,31 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -582,19 +707,31 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>10000</v>
@@ -629,15 +766,27 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6">
@@ -676,15 +825,27 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7">
@@ -723,15 +884,27 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -770,15 +943,27 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9">
@@ -817,15 +1002,27 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10">
@@ -864,8 +1061,787 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
-        <v>7</v>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>10000</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215D986-B854-4F84-872C-211A7117D7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E2668-6626-44A0-8C4D-FF38C2BBEE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,10 +560,10 @@
         <v>20000</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E2668-6626-44A0-8C4D-FF38C2BBEE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A60407-3ABF-4534-9EF9-16A26313AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,40 +563,40 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="R2">
         <v>100</v>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>10000</v>
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>10000</v>
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -967,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -1144,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>10000</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>10000</v>
@@ -1262,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -1321,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -1380,7 +1380,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>10000</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -1498,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -1557,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1675,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -1734,7 +1734,7 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>10000</v>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>10000</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A60407-3ABF-4534-9EF9-16A26313AD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E83279-2B75-4356-AE85-B2DB72FEA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,40 +563,40 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>140</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>100</v>
@@ -619,19 +619,19 @@
         <v>15000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
@@ -929,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s">
         <v>4</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S12" t="s">
         <v>4</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S13" t="s">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S14" t="s">
         <v>4</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S15" t="s">
         <v>4</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
         <v>4</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S17" t="s">
         <v>4</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S18" t="s">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S19" t="s">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S20" t="s">
         <v>4</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S21" t="s">
         <v>4</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S22" t="s">
         <v>4</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s">
         <v>4</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E83279-2B75-4356-AE85-B2DB72FEA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3263447-F3FF-4625-BFD6-9B098B777727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
@@ -929,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>4</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
         <v>4</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S13" t="s">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" t="s">
         <v>4</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" t="s">
         <v>4</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S16" t="s">
         <v>4</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" t="s">
         <v>4</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" t="s">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" t="s">
         <v>4</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" t="s">
         <v>4</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" t="s">
         <v>4</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" t="s">
         <v>4</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3263447-F3FF-4625-BFD6-9B098B777727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAE251-02BC-4EA0-B004-EE52304A5F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,13 +563,13 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EAE251-02BC-4EA0-B004-EE52304A5F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A4A7A-33FA-40E1-A133-A9511DFC153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,10 +566,10 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
+++ b/configs/mdragon/pythonextern/CoffeMachine/MVC/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mWork\Github_mWork\linuxcncN\configs\mdragon\pythonextern\CoffeMachine\MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A4A7A-33FA-40E1-A133-A9511DFC153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BEA4A3-BB84-4C23-819E-5F9D30F8064D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,10 +560,10 @@
         <v>20000</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
